--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_TOOLS\WebDriverIO\inputnik\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_TOOLS\WebDriverIO\WDIO-Jenkins\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,15 +50,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>Brown</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postalCode</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,13 +433,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5">
         <v>2234509</v>
@@ -478,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5">
         <v>908190</v>
